--- a/java/project-JavaBank/src/io/output.xlsx
+++ b/java/project-JavaBank/src/io/output.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28316" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29555" uniqueCount="432">
   <si>
     <t>customerId</t>
   </si>
@@ -2542,7 +2542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
@@ -2607,9 +2607,12 @@
         <v>7000000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="H2" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0873820850563373E7</v>
+      </c>
+      <c r="I2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2630,12 +2633,15 @@
         <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>9.9E7</v>
+        <v>6000000.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H3" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.174764170112675E7</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2659,9 +2665,12 @@
         <v>7500000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H4" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.174764170112675E7</v>
+      </c>
+      <c r="I4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2728,7 +2737,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.085</v>
+        <v>1.0436910425281686E8</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>

--- a/java/project-JavaBank/src/io/output.xlsx
+++ b/java/project-JavaBank/src/io/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FE6EB896-7410-44D0-BD9E-7B1293B37492}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8C31FB64-32BB-46AE-94BF-DF4C0F5EC74C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="9" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView activeTab="10" firstSheet="2" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" r:id="rId1" sheetId="1"/>
@@ -23,7 +23,8 @@
     <sheet name="exchangeRate" r:id="rId8" sheetId="6"/>
     <sheet name="interestRate" r:id="rId9" sheetId="9"/>
     <sheet name="transactionLog" r:id="rId10" sheetId="11"/>
-    <sheet name="BS" r:id="rId11" sheetId="10"/>
+    <sheet name="ratingUpdate" r:id="rId11" sheetId="12"/>
+    <sheet name="BS" r:id="rId12" sheetId="10"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">interestRate!$A$1:$F$15</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29555" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="441">
   <si>
     <t>customerId</t>
   </si>
@@ -144,9 +145,6 @@
     <t>basicSalary</t>
   </si>
   <si>
-    <t>rateOfBonus</t>
-  </si>
-  <si>
     <t>staff1</t>
   </si>
   <si>
@@ -780,6 +778,48 @@
     <t>transactionId</t>
   </si>
   <si>
+    <t xml:space="preserve">Total outstanding loan balance:                   VND           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total outstanding deposit balance:                VND            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average interest rate on loans:                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average interest rate on deposits:                                             </t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>requestCreation</t>
+  </si>
+  <si>
+    <t>currentRating</t>
+  </si>
+  <si>
+    <t>proposedRating</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
     <t>31/12/2022</t>
   </si>
   <si>
@@ -1005,6 +1045,9 @@
     <t>02/11/2019</t>
   </si>
   <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
     <t>27/04/2020</t>
   </si>
   <si>
@@ -1323,58 +1366,43 @@
     <t>20/10/2024</t>
   </si>
   <si>
-    <t>09/05/2023</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cusB</t>
+  </si>
+  <si>
+    <t>Sydney@123123</t>
+  </si>
+  <si>
+    <t>c@c.com</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>staffB</t>
+  </si>
+  <si>
+    <t>b@b.com</t>
+  </si>
+  <si>
     <t>Binh</t>
   </si>
   <si>
-    <t>Uts@147896325</t>
-  </si>
-  <si>
-    <t>b@b.com</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2023-05-09 21:34:07</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2023-05-13 20:43:55</t>
   </si>
   <si>
     <t>BALANCE</t>
   </si>
   <si>
-    <t>2023-05-09 21:37:59</t>
-  </si>
-  <si>
-    <t>2023-05-09 21:39:49</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Sydney@123123</t>
-  </si>
-  <si>
-    <t>2023-05-09 21:58:08</t>
-  </si>
-  <si>
-    <t>2023-05-09 21:58:17</t>
-  </si>
-  <si>
-    <t>2023-05-09 21:58:48</t>
-  </si>
-  <si>
-    <t>2023-05-09 22:35:41</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
+    <t>2023-05-13 20:42:32</t>
   </si>
 </sst>
 </file>
@@ -1386,11 +1414,25 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1484,6 +1526,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1504,30 +1554,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="2"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="1"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="1"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="17" numFmtId="43" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1768,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1777,13 +1834,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
@@ -1791,22 +1848,22 @@
         <v>19.0</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1814,22 +1871,22 @@
         <v>18.0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -1837,22 +1894,22 @@
         <v>11.0</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1860,22 +1917,22 @@
         <v>10.0</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1883,22 +1940,22 @@
         <v>13.0</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1906,22 +1963,22 @@
         <v>12.0</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1929,22 +1986,22 @@
         <v>15.0</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1952,22 +2009,22 @@
         <v>14.0</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1975,22 +2032,22 @@
         <v>17.0</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1998,22 +2055,22 @@
         <v>16.0</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2021,22 +2078,22 @@
         <v>20.0</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2044,22 +2101,22 @@
         <v>22.0</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2067,22 +2124,22 @@
         <v>21.0</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2090,22 +2147,22 @@
         <v>24.0</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2113,22 +2170,22 @@
         <v>23.0</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2136,22 +2193,22 @@
         <v>25.0</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2159,22 +2216,22 @@
         <v>9.0</v>
       </c>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2182,22 +2239,22 @@
         <v>7.0</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -2205,22 +2262,22 @@
         <v>8.0</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -2228,7 +2285,7 @@
         <v>5.0</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -2237,13 +2294,13 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2308,7 @@
         <v>6.0</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -2260,13 +2317,13 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -2274,7 +2331,7 @@
         <v>3.0</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2283,13 +2340,13 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -2297,7 +2354,7 @@
         <v>4.0</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -2306,13 +2363,13 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -2320,7 +2377,7 @@
         <v>1.0</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2329,13 +2386,13 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -2343,7 +2400,7 @@
         <v>2.0</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -2352,17 +2409,17 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2372,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2394,34 +2451,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -2454,98 +2511,600 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
     <sortCondition ref="B1:B36"/>
   </sortState>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C236A0-EBEA-4274-B7D1-BA52EDA4A413}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.86328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="K2">
+        <f>MAX(L:L)</f>
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>IF(L2&lt;$K$3+1,1,IF(L2&lt;$K$3+$K$4+1,2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <f>60%/$K$3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O2" s="23">
+        <f>N2*$I$21</f>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="8">
         <f>C5-C4</f>
         <v>481809789923.08008</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="J3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3">
+        <f>ROUNDUP(K2/3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f ref="M3:M18" si="0" t="shared">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <f>N2</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O3" s="23">
+        <f ref="O3:O23" si="1" t="shared">N3*$I$21</f>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE")</f>
         <v>319856758000</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="J4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4">
+        <f>K3</f>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f si="0" t="shared"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f ref="N4:N7" si="2" t="shared">N3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O4" s="23">
+        <f si="1" t="shared"/>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="7">
         <f>C9</f>
         <v>801666547923.08008</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5">
+        <f>K2-K3-K4</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f si="0" t="shared"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <f si="2" t="shared"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O5" s="23">
+        <f si="1" t="shared"/>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="7">
         <f>SUM(Account!I:I)</f>
         <v>1421196923.0799999</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f si="0" t="shared"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <f si="2" t="shared"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O6" s="23">
+        <f si="1" t="shared"/>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(Saving!I:I)</f>
         <v>500245351000</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f si="0" t="shared"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <f si="2" t="shared"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O7" s="23">
+        <f si="1" t="shared"/>
+        <v>46463499.39999865</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="7">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
+        <f>30%/$K$4</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O8" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
         <v>801666547923.08008</v>
       </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <f>N8</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O9" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
+        <f ref="N10:N13" si="3" t="shared">N9</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O10" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="6">
+        <f si="3" t="shared"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O11" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
+        <f si="3" t="shared"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O12" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G13" s="21">
+        <v>319856758000</v>
+      </c>
+      <c r="I13" s="7">
+        <f>G13*G14</f>
+        <v>33648930941.600002</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f si="0" t="shared"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <f si="3" t="shared"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <f si="1" t="shared"/>
+        <v>23231749.699999325</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G14" s="22">
+        <v>0.1052</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <f si="0" t="shared"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="6">
+        <f>10%/$K$5</f>
+        <v>0.02</v>
+      </c>
+      <c r="O14" s="23">
+        <f si="1" t="shared"/>
+        <v>9292699.8799997307</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G15" s="21">
+        <v>501666547923.08002</v>
+      </c>
+      <c r="I15" s="7">
+        <f>G15*G16</f>
+        <v>27390993516.60017</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <f si="0" t="shared"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <f>N14</f>
+        <v>0.02</v>
+      </c>
+      <c r="O15" s="23">
+        <f si="1" t="shared"/>
+        <v>9292699.8799997307</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G16" s="22">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <f>I13-I15</f>
+        <v>6257937424.9998322</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <f si="0" t="shared"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <f ref="N16:N18" si="4" t="shared">N15</f>
+        <v>0.02</v>
+      </c>
+      <c r="O16" s="23">
+        <f si="1" t="shared"/>
+        <v>9292699.8799997307</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="I17" s="8">
+        <f>G27*12</f>
+        <v>450000000</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <f si="0" t="shared"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
+        <f si="4" t="shared"/>
+        <v>0.02</v>
+      </c>
+      <c r="O17" s="23">
+        <f si="1" t="shared"/>
+        <v>9292699.8799997307</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="I18" s="8">
+        <f>I16-I17</f>
+        <v>5807937424.9998322</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <f si="0" t="shared"/>
+        <v>3</v>
+      </c>
+      <c r="N18" s="6">
+        <f si="4" t="shared"/>
+        <v>0.02</v>
+      </c>
+      <c r="O18" s="23">
+        <f si="1" t="shared"/>
+        <v>9292699.8799997307</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="I19" s="24">
+        <f>I18*10%</f>
+        <v>580793742.49998319</v>
+      </c>
+      <c r="N19" s="26">
+        <f>SUM(N2:N18)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="I20" s="23">
+        <f>20%*I19</f>
+        <v>116158748.49999665</v>
+      </c>
+      <c r="O20" s="23">
+        <f si="1" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G21" s="7">
+        <v>7000000</v>
+      </c>
+      <c r="H21" s="8">
+        <f>G21*12</f>
+        <v>84000000</v>
+      </c>
+      <c r="I21" s="23">
+        <f>I19-I20</f>
+        <v>464634993.99998653</v>
+      </c>
+      <c r="O21" s="23">
+        <f si="1" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G22" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="H22" s="8">
+        <f>G22*12</f>
+        <v>90000000</v>
+      </c>
+      <c r="O22" s="23">
+        <f si="1" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G23" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="H23" s="8">
+        <f>G23*12</f>
+        <v>72000000</v>
+      </c>
+      <c r="O23" s="23">
+        <f si="1" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G26" s="7">
+        <v>17000000</v>
+      </c>
+      <c r="H26" s="8">
+        <f>G26*12</f>
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G27" s="8">
+        <f>SUM(G21:G26)</f>
+        <v>37500000</v>
+      </c>
+      <c r="H27" s="8">
+        <f>G27*12</f>
+        <v>450000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2556,17 +3115,18 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.59765625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="16.73046875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.3984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.86328125" collapsed="true"/>
-    <col min="9" max="24" customWidth="true" width="8.73046875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.86328125" collapsed="true"/>
+    <col min="10" max="25" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="14.25" r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row ht="14.25" r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2575,103 +3135,144 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>434</v>
       </c>
       <c r="F2" t="n">
-        <v>7000000.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.0873820850563373E7</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>6000000.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.174764170112675E7</v>
-      </c>
+        <v>7000000.0</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="n">
         <v>7500000.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.174764170112675E7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +3286,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2699,7 +3300,7 @@
   <sheetData>
     <row ht="14.25" r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2708,39 +3309,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0436910425281686E8</v>
+        <v>0.085</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +3352,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
@@ -2769,104 +3370,104 @@
   <sheetData>
     <row ht="14.25" r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>41.0</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>42.0</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>46.0</v>
+        <v>15.0</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -2877,10 +3478,10 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="E7" t="s">
         <v>139</v>
@@ -2888,19 +3489,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -2911,10 +3512,10 @@
         <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="E9" t="s">
         <v>141</v>
@@ -2922,19 +3523,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -2945,10 +3546,10 @@
         <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -2956,104 +3557,104 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -3064,10 +3665,10 @@
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E18" t="s">
         <v>148</v>
@@ -3075,19 +3676,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -3098,10 +3699,10 @@
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>43.0</v>
       </c>
       <c r="E20" t="s">
         <v>150</v>
@@ -3109,176 +3710,210 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>26.0</v>
+        <v>49.0</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>428</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>435</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E25" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>44.0</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3288,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3309,7 +3944,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3318,28 +3953,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -3351,12 +3986,12 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>537251.0</v>
@@ -3368,7 +4003,7 @@
         <v>0.005</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -3382,12 +4017,12 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
         <v>238237.0</v>
@@ -3399,7 +4034,7 @@
         <v>0.005</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -3413,12 +4048,12 @@
         <v>2.0</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
         <v>536806.0</v>
@@ -3430,7 +4065,7 @@
         <v>0.005</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -3444,12 +4079,12 @@
         <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
         <v>75604.0</v>
@@ -3461,7 +4096,7 @@
         <v>0.005</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -3475,12 +4110,12 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>113622.0</v>
@@ -3492,7 +4127,7 @@
         <v>0.005</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -3506,12 +4141,12 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>287474.0</v>
@@ -3523,7 +4158,7 @@
         <v>0.005</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -3537,12 +4172,12 @@
         <v>3.0</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
         <v>4113.0</v>
@@ -3554,7 +4189,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -3568,12 +4203,12 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
         <v>4172.0</v>
@@ -3585,7 +4220,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -3599,12 +4234,12 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="n">
         <v>1626.0</v>
@@ -3616,7 +4251,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -3630,12 +4265,12 @@
         <v>3.0</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="n">
         <v>3420.0</v>
@@ -3647,7 +4282,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -3661,12 +4296,12 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="n">
         <v>3742.0</v>
@@ -3678,7 +4313,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -3692,12 +4327,12 @@
         <v>2.0</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" t="n">
         <v>4345.0</v>
@@ -3709,7 +4344,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -3723,12 +4358,12 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H14" t="n">
         <v>323.0</v>
@@ -3740,7 +4375,7 @@
         <v>0.004</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -3754,12 +4389,12 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15" t="n">
         <v>210.0</v>
@@ -3771,7 +4406,7 @@
         <v>0.004</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -3785,12 +4420,12 @@
         <v>2.0</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" t="n">
         <v>490.0</v>
@@ -3802,7 +4437,7 @@
         <v>0.004</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -3816,12 +4451,12 @@
         <v>3.0</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" t="n">
         <v>481.0</v>
@@ -3833,7 +4468,7 @@
         <v>0.004</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -3847,12 +4482,12 @@
         <v>3.0</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" t="n">
         <v>287.0</v>
@@ -3864,7 +4499,7 @@
         <v>0.004</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -3878,12 +4513,12 @@
         <v>3.0</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19" t="n">
         <v>491.0</v>
@@ -3895,7 +4530,7 @@
         <v>0.004</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -3909,12 +4544,12 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
         <v>9980102.0</v>
@@ -3926,7 +4561,7 @@
         <v>0.005</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3940,12 +4575,12 @@
         <v>3.0</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>5476967.0</v>
@@ -3957,7 +4592,7 @@
         <v>0.005</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3971,12 +4606,12 @@
         <v>3.0</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
         <v>4549845.0</v>
@@ -3988,7 +4623,7 @@
         <v>0.005</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -4002,12 +4637,12 @@
         <v>2.0</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
         <v>5863377.0</v>
@@ -4019,7 +4654,7 @@
         <v>0.005</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -4033,12 +4668,12 @@
         <v>3.0</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>8448457.0</v>
@@ -4050,7 +4685,7 @@
         <v>0.005</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -4064,12 +4699,12 @@
         <v>2.0</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
         <v>3872282.0</v>
@@ -4081,7 +4716,7 @@
         <v>0.005</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -4095,12 +4730,12 @@
         <v>2.0</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
         <v>5739796.0</v>
@@ -4112,7 +4747,7 @@
         <v>0.005</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4126,12 +4761,12 @@
         <v>1.0</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
         <v>7755939.0</v>
@@ -4143,7 +4778,7 @@
         <v>0.005</v>
       </c>
       <c r="K27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -4157,12 +4792,12 @@
         <v>3.0</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" t="n">
         <v>7213398.0</v>
@@ -4174,7 +4809,7 @@
         <v>0.005</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -4188,12 +4823,12 @@
         <v>3.0</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
         <v>6577462.0</v>
@@ -4205,7 +4840,7 @@
         <v>0.005</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -4219,12 +4854,12 @@
         <v>1.0</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
         <v>2960169.0</v>
@@ -4236,7 +4871,7 @@
         <v>0.005</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4250,12 +4885,12 @@
         <v>3.0</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" t="n">
         <v>8009206.0</v>
@@ -4267,7 +4902,7 @@
         <v>0.005</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -4281,12 +4916,12 @@
         <v>1.0</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
         <v>7747227.0</v>
@@ -4298,7 +4933,7 @@
         <v>0.005</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -4312,12 +4947,12 @@
         <v>2.0</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
         <v>8563947.0</v>
@@ -4329,7 +4964,7 @@
         <v>0.005</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -4343,12 +4978,12 @@
         <v>2.0</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" t="n">
         <v>9371489.0</v>
@@ -4360,7 +4995,7 @@
         <v>0.005</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -4374,12 +5009,12 @@
         <v>2.0</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" t="n">
         <v>5359387.0</v>
@@ -4391,7 +5026,7 @@
         <v>0.005</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -4403,12 +5038,12 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" t="n">
         <v>7487506.0</v>
@@ -4420,7 +5055,7 @@
         <v>0.005</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -4434,12 +5069,12 @@
         <v>2.0</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
         <v>1603258.0</v>
@@ -4451,7 +5086,7 @@
         <v>0.005</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -4465,12 +5100,12 @@
         <v>1.0</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" t="n">
         <v>2798196.0</v>
@@ -4482,7 +5117,7 @@
         <v>0.005</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -4496,12 +5131,12 @@
         <v>2.0</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" t="n">
         <v>150.0</v>
@@ -4513,7 +5148,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -4527,12 +5162,12 @@
         <v>1.0</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" t="n">
         <v>2967.0</v>
@@ -4544,7 +5179,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -4558,12 +5193,12 @@
         <v>3.0</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="n">
         <v>214.0</v>
@@ -4575,7 +5210,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -4589,12 +5224,12 @@
         <v>3.0</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" t="n">
         <v>2850.0</v>
@@ -4606,7 +5241,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -4620,12 +5255,12 @@
         <v>1.0</v>
       </c>
       <c r="D43" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="n">
         <v>2852.0</v>
@@ -4637,7 +5272,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -4651,12 +5286,12 @@
         <v>2.0</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" t="n">
         <v>351.0</v>
@@ -4668,7 +5303,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -4682,12 +5317,12 @@
         <v>3.0</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" t="n">
         <v>124.0</v>
@@ -4699,7 +5334,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -4713,12 +5348,12 @@
         <v>2.0</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="n">
         <v>1990.0</v>
@@ -4730,7 +5365,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -4744,12 +5379,12 @@
         <v>2.0</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47" t="n">
         <v>434.0</v>
@@ -4761,7 +5396,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -4775,12 +5410,12 @@
         <v>2.0</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" t="n">
         <v>1177.0</v>
@@ -4792,7 +5427,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -4806,12 +5441,12 @@
         <v>2.0</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49" t="n">
         <v>779.0</v>
@@ -4823,7 +5458,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -4837,12 +5472,12 @@
         <v>3.0</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" t="n">
         <v>360.0</v>
@@ -4854,7 +5489,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
@@ -4866,12 +5501,12 @@
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" t="n">
         <v>270.0</v>
@@ -4883,7 +5518,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -4897,12 +5532,12 @@
         <v>1.0</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" t="n">
         <v>194.0</v>
@@ -4914,7 +5549,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
@@ -4928,12 +5563,12 @@
         <v>1.0</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" t="n">
         <v>420.0</v>
@@ -4945,7 +5580,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
@@ -4957,12 +5592,12 @@
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" t="n">
         <v>277.0</v>
@@ -4974,7 +5609,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
@@ -4988,12 +5623,12 @@
         <v>3.0</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55" t="n">
         <v>1875.0</v>
@@ -5005,7 +5640,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -5019,12 +5654,12 @@
         <v>1.0</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56" t="n">
         <v>662.0</v>
@@ -5036,7 +5671,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -5050,12 +5685,12 @@
         <v>1.0</v>
       </c>
       <c r="D57" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" t="n">
         <v>2053.0</v>
@@ -5067,7 +5702,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -5081,12 +5716,12 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H58" t="n">
         <v>646.0</v>
@@ -5098,7 +5733,7 @@
         <v>0.004</v>
       </c>
       <c r="K58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -5110,12 +5745,12 @@
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H59" t="n">
         <v>676.0</v>
@@ -5127,7 +5762,7 @@
         <v>0.004</v>
       </c>
       <c r="K59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -5141,12 +5776,12 @@
         <v>1.0</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H60" t="n">
         <v>643.0</v>
@@ -5158,7 +5793,7 @@
         <v>0.004</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
@@ -5172,12 +5807,12 @@
         <v>3.0</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H61" t="n">
         <v>710.0</v>
@@ -5189,7 +5824,7 @@
         <v>0.004</v>
       </c>
       <c r="K61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -5203,12 +5838,12 @@
         <v>3.0</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62" t="n">
         <v>555.0</v>
@@ -5220,7 +5855,7 @@
         <v>0.004</v>
       </c>
       <c r="K62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -5234,12 +5869,12 @@
         <v>2.0</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H63" t="n">
         <v>445.0</v>
@@ -5251,7 +5886,7 @@
         <v>0.004</v>
       </c>
       <c r="K63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -5265,12 +5900,12 @@
         <v>3.0</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H64" t="n">
         <v>44.0</v>
@@ -5282,7 +5917,7 @@
         <v>0.004</v>
       </c>
       <c r="K64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -5296,12 +5931,12 @@
         <v>3.0</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H65" t="n">
         <v>242.0</v>
@@ -5313,7 +5948,7 @@
         <v>0.004</v>
       </c>
       <c r="K65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -5327,12 +5962,12 @@
         <v>3.0</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H66" t="n">
         <v>83.0</v>
@@ -5344,7 +5979,7 @@
         <v>0.004</v>
       </c>
       <c r="K66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -5358,12 +5993,12 @@
         <v>2.0</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H67" t="n">
         <v>990.0</v>
@@ -5375,7 +6010,7 @@
         <v>0.004</v>
       </c>
       <c r="K67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -5389,12 +6024,12 @@
         <v>1.0</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H68" t="n">
         <v>973.0</v>
@@ -5406,7 +6041,7 @@
         <v>0.004</v>
       </c>
       <c r="K68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
@@ -5420,12 +6055,12 @@
         <v>3.0</v>
       </c>
       <c r="D69" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H69" t="n">
         <v>658.0</v>
@@ -5437,7 +6072,7 @@
         <v>0.004</v>
       </c>
       <c r="K69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -5451,12 +6086,12 @@
         <v>3.0</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H70" t="n">
         <v>814.0</v>
@@ -5468,7 +6103,7 @@
         <v>0.004</v>
       </c>
       <c r="K70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -5482,12 +6117,12 @@
         <v>2.0</v>
       </c>
       <c r="D71" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H71" t="n">
         <v>656.0</v>
@@ -5499,7 +6134,7 @@
         <v>0.004</v>
       </c>
       <c r="K71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
@@ -5513,12 +6148,12 @@
         <v>2.0</v>
       </c>
       <c r="D72" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72" t="n">
         <v>90.0</v>
@@ -5530,7 +6165,7 @@
         <v>0.004</v>
       </c>
       <c r="K72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
@@ -5544,12 +6179,12 @@
         <v>2.0</v>
       </c>
       <c r="D73" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73" t="n">
         <v>470.0</v>
@@ -5561,7 +6196,7 @@
         <v>0.004</v>
       </c>
       <c r="K73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
@@ -5573,12 +6208,12 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H74" t="n">
         <v>740.0</v>
@@ -5590,7 +6225,7 @@
         <v>0.004</v>
       </c>
       <c r="K74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -5604,12 +6239,12 @@
         <v>2.0</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H75" t="n">
         <v>426.0</v>
@@ -5621,7 +6256,7 @@
         <v>0.004</v>
       </c>
       <c r="K75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -5635,12 +6270,12 @@
         <v>2.0</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H76" t="n">
         <v>389.0</v>
@@ -5652,11 +6287,11 @@
         <v>0.004</v>
       </c>
       <c r="K76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -5667,7 +6302,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5688,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5697,28 +6332,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>3</v>
@@ -5733,16 +6368,16 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F2" t="n">
         <v>60.0</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>3.0E9</v>
@@ -5754,7 +6389,7 @@
         <v>0.11600000000000003</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +6403,16 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F3" t="n">
         <v>240.0</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
         <v>1.0E10</v>
@@ -5789,7 +6424,7 @@
         <v>0.13300000000000003</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -5803,16 +6438,16 @@
         <v>2.0</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F4" t="n">
         <v>48.0</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
         <v>1.4E10</v>
@@ -5824,7 +6459,7 @@
         <v>0.12200000000000004</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -5843,7 +6478,7 @@
         <v>84.0</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
         <v>3.8E10</v>
@@ -5855,7 +6490,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -5874,7 +6509,7 @@
         <v>9.0</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>3.0E10</v>
@@ -5886,7 +6521,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -5900,16 +6535,16 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F7" t="n">
         <v>36.0</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>1.1E10</v>
@@ -5921,7 +6556,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -5935,16 +6570,16 @@
         <v>3.0</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F8" t="n">
         <v>120.0</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
         <v>628877.0</v>
@@ -5956,7 +6591,7 @@
         <v>0.04100000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -5970,16 +6605,16 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F9" t="n">
         <v>360.0</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
         <v>904812.0</v>
@@ -5991,7 +6626,7 @@
         <v>0.04800000000000001</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -6010,7 +6645,7 @@
         <v>48.0</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="n">
         <v>112665.0</v>
@@ -6022,7 +6657,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -6036,16 +6671,16 @@
         <v>3.0</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F11" t="n">
         <v>240.0</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="n">
         <v>908493.0</v>
@@ -6057,7 +6692,7 @@
         <v>0.04200000000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -6076,7 +6711,7 @@
         <v>60.0</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="n">
         <v>230145.0</v>
@@ -6088,7 +6723,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13">
@@ -6102,16 +6737,16 @@
         <v>2.0</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F13" t="n">
         <v>60.0</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" t="n">
         <v>530446.0</v>
@@ -6123,7 +6758,7 @@
         <v>0.03900000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -6137,16 +6772,16 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F14" t="n">
         <v>240.0</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>3.9E10</v>
@@ -6158,7 +6793,7 @@
         <v>0.12800000000000003</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -6172,16 +6807,16 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F15" t="n">
         <v>360.0</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
         <v>4.8E10</v>
@@ -6193,7 +6828,7 @@
         <v>0.13700000000000004</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -6207,16 +6842,16 @@
         <v>2.0</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F16" t="n">
         <v>120.0</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
         <v>3.1E10</v>
@@ -6228,7 +6863,7 @@
         <v>0.13400000000000004</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -6242,16 +6877,16 @@
         <v>3.0</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F17" t="n">
         <v>48.0</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="n">
         <v>4.2E10</v>
@@ -6263,7 +6898,7 @@
         <v>0.11200000000000003</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -6282,7 +6917,7 @@
         <v>15.0</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" t="n">
         <v>4.5E10</v>
@@ -6294,7 +6929,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
@@ -6308,16 +6943,16 @@
         <v>2.0</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="F19" t="n">
         <v>36.0</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="n">
         <v>1.9E10</v>
@@ -6329,7 +6964,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -6343,16 +6978,16 @@
         <v>3.0</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F20" t="n">
         <v>36.0</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
         <v>3.1E10</v>
@@ -6364,7 +6999,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -6376,16 +7011,16 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F21" t="n">
         <v>48.0</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>2.0E9</v>
@@ -6397,7 +7032,7 @@
         <v>0.11700000000000003</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +7044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -6430,7 +7065,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6439,28 +7074,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -6474,16 +7109,16 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F2" t="n">
         <v>18.0</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>3.0E8</v>
@@ -6495,7 +7130,7 @@
         <v>0.06500000000000002</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -6509,16 +7144,16 @@
         <v>2.0</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F3" t="n">
         <v>36.0</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
         <v>1.0E9</v>
@@ -6530,7 +7165,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -6544,16 +7179,16 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
         <v>1.4E9</v>
@@ -6565,7 +7200,7 @@
         <v>0.05900000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -6579,16 +7214,16 @@
         <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F5" t="n">
         <v>36.0</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
         <v>3.8E9</v>
@@ -6600,7 +7235,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -6614,16 +7249,16 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F6" t="n">
         <v>12.0</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>3.0E9</v>
@@ -6635,7 +7270,7 @@
         <v>0.05900000000000001</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -6649,16 +7284,16 @@
         <v>3.0</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F7" t="n">
         <v>36.0</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>1.1E9</v>
@@ -6670,7 +7305,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -6684,16 +7319,16 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F8" t="n">
         <v>9.0</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
         <v>6.288769999999999E10</v>
@@ -6705,7 +7340,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -6719,16 +7354,16 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F9" t="n">
         <v>15.0</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" t="n">
         <v>9.04812E10</v>
@@ -6740,7 +7375,7 @@
         <v>0.06200000000000001</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -6754,16 +7389,16 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="n">
         <v>1.12665E10</v>
@@ -6775,7 +7410,7 @@
         <v>0.05900000000000001</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -6789,16 +7424,16 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F11" t="n">
         <v>9.0</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
         <v>9.08493E10</v>
@@ -6810,7 +7445,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -6824,16 +7459,16 @@
         <v>2.0</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F12" t="n">
         <v>9.0</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" t="n">
         <v>2.30145E10</v>
@@ -6845,7 +7480,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -6859,16 +7494,16 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F13" t="n">
         <v>15.0</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>5.30446E10</v>
@@ -6880,7 +7515,7 @@
         <v>0.06200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -6894,16 +7529,16 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E14" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="F14" t="n">
         <v>36.0</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>3.9E9</v>
@@ -6915,7 +7550,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -6929,16 +7564,16 @@
         <v>2.0</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F15" t="n">
         <v>60.0</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
         <v>4.8E9</v>
@@ -6950,7 +7585,7 @@
         <v>0.07700000000000003</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -6964,16 +7599,16 @@
         <v>2.0</v>
       </c>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F16" t="n">
         <v>9.0</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
         <v>3.1E9</v>
@@ -6985,7 +7620,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -6999,16 +7634,16 @@
         <v>3.0</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F17" t="n">
         <v>24.0</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="n">
         <v>4.2E9</v>
@@ -7020,7 +7655,7 @@
         <v>0.06800000000000002</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -7034,16 +7669,16 @@
         <v>3.0</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E18" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F18" t="n">
         <v>18.0</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" t="n">
         <v>4.5E9</v>
@@ -7055,7 +7690,7 @@
         <v>0.06500000000000002</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -7069,16 +7704,16 @@
         <v>3.0</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="n">
         <v>1.9E9</v>
@@ -7090,7 +7725,7 @@
         <v>0.05900000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -7104,16 +7739,16 @@
         <v>2.0</v>
       </c>
       <c r="D20" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E20" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F20" t="n">
         <v>48.0</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
         <v>3.1E9</v>
@@ -7125,7 +7760,7 @@
         <v>0.07400000000000002</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -7139,16 +7774,16 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F21" t="n">
         <v>48.0</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>1.7E10</v>
@@ -7160,7 +7795,7 @@
         <v>0.07400000000000002</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -7174,16 +7809,16 @@
         <v>1.0</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F22" t="n">
         <v>48.0</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
         <v>1.5E9</v>
@@ -7195,7 +7830,7 @@
         <v>0.07400000000000002</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -7209,16 +7844,16 @@
         <v>3.0</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F23" t="n">
         <v>48.0</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
         <v>1.5E10</v>
@@ -7230,7 +7865,7 @@
         <v>0.07400000000000002</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -7244,16 +7879,16 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F24" t="n">
         <v>36.0</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>2.0E9</v>
@@ -7265,7 +7900,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -7279,16 +7914,16 @@
         <v>2.0</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F25" t="n">
         <v>60.0</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
         <v>2.0E10</v>
@@ -7300,7 +7935,7 @@
         <v>0.07700000000000003</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -7314,16 +7949,16 @@
         <v>3.0</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F26" t="n">
         <v>36.0</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
         <v>6.0E9</v>
@@ -7335,7 +7970,7 @@
         <v>0.07100000000000002</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -7349,16 +7984,16 @@
         <v>3.0</v>
       </c>
       <c r="D27" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E27" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F27" t="n">
         <v>24.0</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
         <v>2.0E8</v>
@@ -7370,7 +8005,7 @@
         <v>0.06800000000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -7384,16 +8019,16 @@
         <v>1.0</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E28" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F28" t="n">
         <v>12.0</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" t="n">
         <v>8.5E9</v>
@@ -7405,7 +8040,7 @@
         <v>0.05900000000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -7419,16 +8054,16 @@
         <v>3.0</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E29" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F29" t="n">
         <v>18.0</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
         <v>6.0E9</v>
@@ -7440,7 +8075,7 @@
         <v>0.06500000000000002</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -7454,16 +8089,16 @@
         <v>3.0</v>
       </c>
       <c r="D30" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E30" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F30" t="n">
         <v>12.0</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" t="n">
         <v>200000.0</v>
@@ -7475,7 +8110,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -7489,16 +8124,16 @@
         <v>3.0</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F31" t="n">
         <v>12.0</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
         <v>200001.0</v>
@@ -7510,7 +8145,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -7524,16 +8159,16 @@
         <v>1.0</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F32" t="n">
         <v>9.0</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" t="n">
         <v>200002.0</v>
@@ -7545,7 +8180,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -7559,16 +8194,16 @@
         <v>2.0</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="E33" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F33" t="n">
         <v>48.0</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="n">
         <v>200003.0</v>
@@ -7580,7 +8215,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -7594,16 +8229,16 @@
         <v>3.0</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F34" t="n">
         <v>15.0</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" t="n">
         <v>200004.0</v>
@@ -7615,7 +8250,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -7629,16 +8264,16 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F35" t="n">
         <v>9.0</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="n">
         <v>200005.0</v>
@@ -7650,7 +8285,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -7664,16 +8299,16 @@
         <v>2.0</v>
       </c>
       <c r="D36" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="E36" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" t="n">
         <v>200006.0</v>
@@ -7685,7 +8320,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -7699,16 +8334,16 @@
         <v>1.0</v>
       </c>
       <c r="D37" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="E37" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F37" t="n">
         <v>24.0</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
         <v>200007.0</v>
@@ -7720,7 +8355,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -7734,16 +8369,16 @@
         <v>3.0</v>
       </c>
       <c r="D38" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F38" t="n">
         <v>36.0</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" t="n">
         <v>200008.0</v>
@@ -7755,7 +8390,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -7769,16 +8404,16 @@
         <v>3.0</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E39" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F39" t="n">
         <v>48.0</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" t="n">
         <v>200009.0</v>
@@ -7790,7 +8425,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -7804,16 +8439,16 @@
         <v>3.0</v>
       </c>
       <c r="D40" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F40" t="n">
         <v>60.0</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" t="n">
         <v>200010.0</v>
@@ -7825,7 +8460,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -7839,16 +8474,16 @@
         <v>2.0</v>
       </c>
       <c r="D41" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E41" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F41" t="n">
         <v>24.0</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="n">
         <v>200011.0</v>
@@ -7860,7 +8495,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7886,27 +8521,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -7914,13 +8549,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
         <v>23500.0</v>
@@ -7928,13 +8563,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
         <v>26071.69</v>
@@ -7942,13 +8577,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
         <v>22035.58</v>
@@ -7956,13 +8591,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>30379.0</v>
@@ -7970,13 +8605,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>16271.0</v>
@@ -7984,13 +8619,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
         <v>191.0</v>
@@ -7998,13 +8633,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
         <v>23032.8</v>
@@ -8012,13 +8647,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
         <v>3416.69</v>
@@ -8026,13 +8661,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
         <v>2576.69</v>
@@ -8040,13 +8675,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>18.89</v>
@@ -8054,13 +8689,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
         <v>15281.28</v>
@@ -8091,33 +8726,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
-      </c>
-      <c r="D1" t="s">
-        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
@@ -8131,13 +8766,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" t="n">
         <v>6.0</v>
@@ -8151,13 +8786,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="n">
         <v>9.0</v>
@@ -8171,13 +8806,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" t="n">
         <v>12.0</v>
@@ -8191,13 +8826,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" t="n">
         <v>15.0</v>
@@ -8211,13 +8846,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" t="n">
         <v>18.0</v>
@@ -8231,13 +8866,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" t="n">
         <v>24.0</v>
@@ -8251,13 +8886,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" t="n">
         <v>36.0</v>
@@ -8271,13 +8906,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
         <v>48.0</v>
@@ -8291,13 +8926,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="n">
         <v>60.0</v>
@@ -8311,13 +8946,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" t="n">
         <v>84.0</v>
@@ -8331,13 +8966,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" t="n">
         <v>120.0</v>
@@ -8351,13 +8986,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" t="n">
         <v>240.0</v>
@@ -8371,13 +9006,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" t="n">
         <v>360.0</v>
@@ -8391,13 +9026,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" t="n">
         <v>3.0</v>
@@ -8411,13 +9046,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" t="n">
         <v>6.0</v>
@@ -8431,13 +9066,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" t="n">
         <v>9.0</v>
@@ -8451,13 +9086,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" t="n">
         <v>12.0</v>
@@ -8471,13 +9106,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" t="n">
         <v>15.0</v>
@@ -8491,13 +9126,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" t="n">
         <v>18.0</v>
@@ -8511,13 +9146,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" t="n">
         <v>24.0</v>
@@ -8531,13 +9166,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" t="n">
         <v>36.0</v>
@@ -8551,13 +9186,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" t="n">
         <v>48.0</v>
@@ -8571,13 +9206,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" t="n">
         <v>60.0</v>
@@ -8591,13 +9226,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" t="n">
         <v>84.0</v>
@@ -8611,13 +9246,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" t="n">
         <v>120.0</v>
@@ -8631,13 +9266,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" t="n">
         <v>240.0</v>
@@ -8651,13 +9286,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" t="n">
         <v>360.0</v>
@@ -8671,13 +9306,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
         <v>3.0</v>
@@ -8691,13 +9326,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" t="n">
         <v>6.0</v>
@@ -8711,13 +9346,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" t="n">
         <v>9.0</v>
@@ -8731,13 +9366,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" t="n">
         <v>12.0</v>
@@ -8751,13 +9386,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" t="n">
         <v>15.0</v>
@@ -8771,13 +9406,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" t="n">
         <v>18.0</v>
@@ -8791,13 +9426,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" t="n">
         <v>24.0</v>
@@ -8811,13 +9446,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" t="n">
         <v>36.0</v>
@@ -8831,13 +9466,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" t="n">
         <v>48.0</v>
@@ -8851,13 +9486,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" t="n">
         <v>60.0</v>
@@ -8871,13 +9506,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" t="n">
         <v>84.0</v>
@@ -8891,13 +9526,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" t="n">
         <v>120.0</v>
@@ -8911,13 +9546,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" t="n">
         <v>240.0</v>
@@ -8931,13 +9566,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" t="n">
         <v>360.0</v>
@@ -8951,13 +9586,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" t="n">
         <v>3.0</v>
@@ -8971,13 +9606,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" t="n">
         <v>6.0</v>
@@ -8991,13 +9626,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" t="n">
         <v>9.0</v>
@@ -9011,13 +9646,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" t="n">
         <v>12.0</v>
@@ -9031,13 +9666,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" t="n">
         <v>15.0</v>
@@ -9051,13 +9686,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" t="n">
         <v>18.0</v>
@@ -9071,13 +9706,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50" t="n">
         <v>24.0</v>
@@ -9091,13 +9726,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" t="n">
         <v>36.0</v>
@@ -9111,13 +9746,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" t="n">
         <v>48.0</v>
@@ -9131,13 +9766,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" t="n">
         <v>60.0</v>
@@ -9151,13 +9786,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" t="n">
         <v>84.0</v>
@@ -9171,13 +9806,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D55" t="n">
         <v>120.0</v>
@@ -9191,13 +9826,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" t="n">
         <v>240.0</v>
@@ -9211,13 +9846,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" t="n">
         <v>360.0</v>
@@ -9231,13 +9866,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" t="n">
         <v>3.0</v>
@@ -9251,13 +9886,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" t="n">
         <v>6.0</v>
@@ -9271,13 +9906,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" t="n">
         <v>9.0</v>
@@ -9291,13 +9926,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" t="n">
         <v>12.0</v>
@@ -9311,13 +9946,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D62" t="n">
         <v>15.0</v>
@@ -9331,13 +9966,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" t="n">
         <v>18.0</v>
@@ -9351,13 +9986,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" t="n">
         <v>24.0</v>
@@ -9371,13 +10006,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65" t="n">
         <v>36.0</v>
@@ -9391,13 +10026,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D66" t="n">
         <v>48.0</v>
@@ -9411,13 +10046,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" t="n">
         <v>60.0</v>
@@ -9431,13 +10066,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" t="n">
         <v>84.0</v>
@@ -9451,13 +10086,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" t="n">
         <v>120.0</v>
@@ -9471,13 +10106,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" t="n">
         <v>240.0</v>
@@ -9491,13 +10126,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" t="n">
         <v>360.0</v>
@@ -9511,13 +10146,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" t="n">
         <v>3.0</v>
@@ -9531,13 +10166,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" t="n">
         <v>6.0</v>
@@ -9551,13 +10186,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" t="n">
         <v>9.0</v>
@@ -9571,13 +10206,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" t="n">
         <v>12.0</v>
@@ -9591,13 +10226,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" t="n">
         <v>15.0</v>
@@ -9611,13 +10246,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" t="n">
         <v>18.0</v>
@@ -9631,13 +10266,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" t="n">
         <v>24.0</v>
@@ -9651,13 +10286,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79" t="n">
         <v>36.0</v>
@@ -9671,13 +10306,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D80" t="n">
         <v>48.0</v>
@@ -9691,13 +10326,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81" t="n">
         <v>60.0</v>
@@ -9711,13 +10346,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D82" t="n">
         <v>84.0</v>
@@ -9731,13 +10366,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83" t="n">
         <v>120.0</v>
@@ -9751,13 +10386,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84" t="n">
         <v>240.0</v>
@@ -9771,13 +10406,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" t="n">
         <v>360.0</v>
@@ -9791,13 +10426,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" t="n">
         <v>3.0</v>
@@ -9809,13 +10444,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" t="n">
         <v>6.0</v>
@@ -9827,13 +10462,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" t="n">
         <v>9.0</v>
@@ -9845,13 +10480,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" t="n">
         <v>12.0</v>
@@ -9863,13 +10498,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" t="n">
         <v>15.0</v>
@@ -9881,13 +10516,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D91" t="n">
         <v>18.0</v>
@@ -9899,13 +10534,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D92" t="n">
         <v>24.0</v>
@@ -9917,13 +10552,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D93" t="n">
         <v>36.0</v>
@@ -9935,13 +10570,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94" t="n">
         <v>48.0</v>
@@ -9953,13 +10588,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95" t="n">
         <v>60.0</v>
@@ -9971,13 +10606,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D96" t="n">
         <v>3.0</v>
@@ -9989,13 +10624,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D97" t="n">
         <v>6.0</v>
@@ -10007,13 +10642,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" t="n">
         <v>9.0</v>
@@ -10025,13 +10660,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D99" t="n">
         <v>12.0</v>
@@ -10043,13 +10678,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100" t="n">
         <v>15.0</v>
@@ -10061,13 +10696,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101" t="n">
         <v>18.0</v>
@@ -10079,13 +10714,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102" t="n">
         <v>24.0</v>
@@ -10097,13 +10732,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D103" t="n">
         <v>36.0</v>
@@ -10115,13 +10750,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104" t="n">
         <v>48.0</v>
@@ -10133,13 +10768,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105" t="n">
         <v>60.0</v>
@@ -10151,13 +10786,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106" t="n">
         <v>3.0</v>
@@ -10169,13 +10804,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107" t="n">
         <v>6.0</v>
@@ -10187,13 +10822,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D108" t="n">
         <v>9.0</v>
@@ -10205,13 +10840,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109" t="n">
         <v>12.0</v>
@@ -10223,13 +10858,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D110" t="n">
         <v>15.0</v>
@@ -10241,13 +10876,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D111" t="n">
         <v>18.0</v>
@@ -10259,13 +10894,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112" t="n">
         <v>24.0</v>
@@ -10277,13 +10912,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D113" t="n">
         <v>36.0</v>
@@ -10295,13 +10930,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D114" t="n">
         <v>48.0</v>
@@ -10313,13 +10948,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D115" t="n">
         <v>60.0</v>
@@ -10331,13 +10966,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
@@ -10347,13 +10982,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
@@ -10363,13 +10998,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B118" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" t="s">
         <v>212</v>
-      </c>
-      <c r="C118" t="s">
-        <v>213</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
@@ -10379,13 +11014,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
@@ -10395,13 +11030,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
@@ -10411,13 +11046,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
@@ -10427,13 +11062,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D122"/>
       <c r="E122"/>
@@ -10443,13 +11078,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
@@ -10459,13 +11094,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D124"/>
       <c r="E124"/>
@@ -10475,13 +11110,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
@@ -10491,13 +11126,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D126"/>
       <c r="E126"/>
@@ -10507,13 +11142,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
